--- a/Piranha_Project_Data.xlsx
+++ b/Piranha_Project_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\piranha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226B29D-DBC4-41B6-A7CD-BE9568DB64BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E2FF87-2DB1-4139-9A98-B9E9CEC0D24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="45">
   <si>
     <t>Run_Name</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>total fw-bw pass peak memory (MB)</t>
+  </si>
+  <si>
+    <t>mem_2pc_lenet_ef_i10_b256_config</t>
   </si>
 </sst>
 </file>
@@ -3151,6 +3154,497 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Peak Memory use fw-bw</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> pass in MB</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(Left = SecureML          /          Right = LeNET)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Tabelle1!$F$236,Tabelle1!$F$246,Tabelle1!$F$256,Tabelle1!$F$266)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$L$236,Tabelle1!$L$246,Tabelle1!$L$256,Tabelle1!$L$266)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>839.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>839.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B7E-4E41-BAD7-C0FB515C3B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="472953567"/>
+        <c:axId val="607620831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="472953567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Runs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607620831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="607620831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Peak memory fw-bw pass (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472953567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -8683,6 +9177,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10514,6 +11048,509 @@
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15495,6 +16532,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1260661</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>113179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87132</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>30679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Diagramm 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63AD7401-1F8F-2EC5-1E21-58EB36762ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15761,10 +16834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T245"/>
+  <dimension ref="A1:T275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M250" sqref="M250"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I291" sqref="I291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19278,7 +20351,7 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O227" s="19">
-        <f t="shared" ref="O227:O302" si="5">N227/60</f>
+        <f t="shared" ref="O227:O233" si="5">N227/60</f>
         <v>0</v>
       </c>
     </row>
@@ -19623,8 +20696,764 @@
       <c r="N245" s="41"/>
       <c r="O245" s="25"/>
     </row>
+    <row r="246" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B246" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D246" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E246" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F246" s="31">
+        <v>26</v>
+      </c>
+      <c r="G246" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H246" s="31">
+        <v>10</v>
+      </c>
+      <c r="I246" s="31">
+        <v>256</v>
+      </c>
+      <c r="J246" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K246" s="26">
+        <v>0</v>
+      </c>
+      <c r="L246" s="39">
+        <v>21.65</v>
+      </c>
+      <c r="M246" s="39">
+        <v>21.65</v>
+      </c>
+      <c r="N246" s="39"/>
+      <c r="O246" s="16"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A247" s="37"/>
+      <c r="B247" s="32"/>
+      <c r="C247" s="32"/>
+      <c r="D247" s="32"/>
+      <c r="E247" s="32"/>
+      <c r="F247" s="32"/>
+      <c r="G247" s="32"/>
+      <c r="H247" s="32"/>
+      <c r="I247" s="32"/>
+      <c r="J247" s="32"/>
+      <c r="K247" s="20">
+        <v>1</v>
+      </c>
+      <c r="L247" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="M247" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="N247" s="40"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A248" s="37"/>
+      <c r="B248" s="32"/>
+      <c r="C248" s="32"/>
+      <c r="D248" s="32"/>
+      <c r="E248" s="32"/>
+      <c r="F248" s="32"/>
+      <c r="G248" s="32"/>
+      <c r="H248" s="32"/>
+      <c r="I248" s="32"/>
+      <c r="J248" s="32"/>
+      <c r="K248" s="20">
+        <v>2</v>
+      </c>
+      <c r="L248" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="M248" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="N248" s="40"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A249" s="37"/>
+      <c r="B249" s="32"/>
+      <c r="C249" s="32"/>
+      <c r="D249" s="32"/>
+      <c r="E249" s="32"/>
+      <c r="F249" s="32"/>
+      <c r="G249" s="32"/>
+      <c r="H249" s="32"/>
+      <c r="I249" s="32"/>
+      <c r="J249" s="32"/>
+      <c r="K249" s="20">
+        <v>3</v>
+      </c>
+      <c r="L249" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="M249" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="N249" s="40"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A250" s="37"/>
+      <c r="B250" s="32"/>
+      <c r="C250" s="32"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="32"/>
+      <c r="F250" s="32"/>
+      <c r="G250" s="32"/>
+      <c r="H250" s="32"/>
+      <c r="I250" s="32"/>
+      <c r="J250" s="32"/>
+      <c r="K250" s="20">
+        <v>4</v>
+      </c>
+      <c r="L250" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="M250" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="N250" s="40"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A251" s="37"/>
+      <c r="B251" s="32"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="32"/>
+      <c r="E251" s="32"/>
+      <c r="F251" s="32"/>
+      <c r="G251" s="32"/>
+      <c r="H251" s="32"/>
+      <c r="I251" s="32"/>
+      <c r="J251" s="32"/>
+      <c r="K251" s="20">
+        <v>5</v>
+      </c>
+      <c r="L251" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="M251" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="N251" s="40"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A252" s="37"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="32"/>
+      <c r="F252" s="32"/>
+      <c r="G252" s="32"/>
+      <c r="H252" s="32"/>
+      <c r="I252" s="32"/>
+      <c r="J252" s="32"/>
+      <c r="K252" s="20">
+        <v>6</v>
+      </c>
+      <c r="L252" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="M252" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="N252" s="40"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A253" s="37"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="32"/>
+      <c r="D253" s="32"/>
+      <c r="E253" s="32"/>
+      <c r="F253" s="32"/>
+      <c r="G253" s="32"/>
+      <c r="H253" s="32"/>
+      <c r="I253" s="32"/>
+      <c r="J253" s="32"/>
+      <c r="K253" s="20">
+        <v>7</v>
+      </c>
+      <c r="L253" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="M253" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="N253" s="40"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A254" s="37"/>
+      <c r="B254" s="32"/>
+      <c r="C254" s="32"/>
+      <c r="D254" s="32"/>
+      <c r="E254" s="32"/>
+      <c r="F254" s="32"/>
+      <c r="G254" s="32"/>
+      <c r="H254" s="32"/>
+      <c r="I254" s="32"/>
+      <c r="J254" s="32"/>
+      <c r="K254" s="20">
+        <v>8</v>
+      </c>
+      <c r="L254" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="M254" s="40">
+        <v>21.65</v>
+      </c>
+      <c r="N254" s="40"/>
+    </row>
+    <row r="255" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="38"/>
+      <c r="B255" s="33"/>
+      <c r="C255" s="33"/>
+      <c r="D255" s="33"/>
+      <c r="E255" s="33"/>
+      <c r="F255" s="33"/>
+      <c r="G255" s="33"/>
+      <c r="H255" s="33"/>
+      <c r="I255" s="33"/>
+      <c r="J255" s="33"/>
+      <c r="K255" s="22">
+        <v>9</v>
+      </c>
+      <c r="L255" s="41">
+        <v>21.65</v>
+      </c>
+      <c r="M255" s="41">
+        <v>21.65</v>
+      </c>
+      <c r="N255" s="41"/>
+      <c r="O255" s="25"/>
+    </row>
+    <row r="256" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B256" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C256" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D256" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E256" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F256" s="31">
+        <v>12</v>
+      </c>
+      <c r="G256" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H256" s="31">
+        <v>10</v>
+      </c>
+      <c r="I256" s="31">
+        <v>256</v>
+      </c>
+      <c r="J256" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K256" s="26">
+        <v>0</v>
+      </c>
+      <c r="L256" s="39">
+        <v>839.46</v>
+      </c>
+      <c r="M256" s="39">
+        <v>839.46</v>
+      </c>
+      <c r="N256" s="39"/>
+      <c r="O256" s="16"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A257" s="37"/>
+      <c r="B257" s="32"/>
+      <c r="C257" s="32"/>
+      <c r="D257" s="32"/>
+      <c r="E257" s="32"/>
+      <c r="F257" s="32"/>
+      <c r="G257" s="32"/>
+      <c r="H257" s="32"/>
+      <c r="I257" s="32"/>
+      <c r="J257" s="32"/>
+      <c r="K257" s="20">
+        <v>1</v>
+      </c>
+      <c r="L257" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M257" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N257" s="40"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A258" s="37"/>
+      <c r="B258" s="32"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="32"/>
+      <c r="G258" s="32"/>
+      <c r="H258" s="32"/>
+      <c r="I258" s="32"/>
+      <c r="J258" s="32"/>
+      <c r="K258" s="20">
+        <v>2</v>
+      </c>
+      <c r="L258" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M258" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N258" s="40"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A259" s="37"/>
+      <c r="B259" s="32"/>
+      <c r="C259" s="32"/>
+      <c r="D259" s="32"/>
+      <c r="E259" s="32"/>
+      <c r="F259" s="32"/>
+      <c r="G259" s="32"/>
+      <c r="H259" s="32"/>
+      <c r="I259" s="32"/>
+      <c r="J259" s="32"/>
+      <c r="K259" s="20">
+        <v>3</v>
+      </c>
+      <c r="L259" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M259" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N259" s="40"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A260" s="37"/>
+      <c r="B260" s="32"/>
+      <c r="C260" s="32"/>
+      <c r="D260" s="32"/>
+      <c r="E260" s="32"/>
+      <c r="F260" s="32"/>
+      <c r="G260" s="32"/>
+      <c r="H260" s="32"/>
+      <c r="I260" s="32"/>
+      <c r="J260" s="32"/>
+      <c r="K260" s="20">
+        <v>4</v>
+      </c>
+      <c r="L260" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M260" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N260" s="40"/>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A261" s="37"/>
+      <c r="B261" s="32"/>
+      <c r="C261" s="32"/>
+      <c r="D261" s="32"/>
+      <c r="E261" s="32"/>
+      <c r="F261" s="32"/>
+      <c r="G261" s="32"/>
+      <c r="H261" s="32"/>
+      <c r="I261" s="32"/>
+      <c r="J261" s="32"/>
+      <c r="K261" s="20">
+        <v>5</v>
+      </c>
+      <c r="L261" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M261" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N261" s="40"/>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A262" s="37"/>
+      <c r="B262" s="32"/>
+      <c r="C262" s="32"/>
+      <c r="D262" s="32"/>
+      <c r="E262" s="32"/>
+      <c r="F262" s="32"/>
+      <c r="G262" s="32"/>
+      <c r="H262" s="32"/>
+      <c r="I262" s="32"/>
+      <c r="J262" s="32"/>
+      <c r="K262" s="20">
+        <v>6</v>
+      </c>
+      <c r="L262" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M262" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N262" s="40"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A263" s="37"/>
+      <c r="B263" s="32"/>
+      <c r="C263" s="32"/>
+      <c r="D263" s="32"/>
+      <c r="E263" s="32"/>
+      <c r="F263" s="32"/>
+      <c r="G263" s="32"/>
+      <c r="H263" s="32"/>
+      <c r="I263" s="32"/>
+      <c r="J263" s="32"/>
+      <c r="K263" s="20">
+        <v>7</v>
+      </c>
+      <c r="L263" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M263" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N263" s="40"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A264" s="37"/>
+      <c r="B264" s="32"/>
+      <c r="C264" s="32"/>
+      <c r="D264" s="32"/>
+      <c r="E264" s="32"/>
+      <c r="F264" s="32"/>
+      <c r="G264" s="32"/>
+      <c r="H264" s="32"/>
+      <c r="I264" s="32"/>
+      <c r="J264" s="32"/>
+      <c r="K264" s="20">
+        <v>8</v>
+      </c>
+      <c r="L264" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M264" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N264" s="40"/>
+    </row>
+    <row r="265" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="38"/>
+      <c r="B265" s="33"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="33"/>
+      <c r="F265" s="33"/>
+      <c r="G265" s="33"/>
+      <c r="H265" s="33"/>
+      <c r="I265" s="33"/>
+      <c r="J265" s="33"/>
+      <c r="K265" s="22">
+        <v>9</v>
+      </c>
+      <c r="L265" s="41">
+        <v>839.46</v>
+      </c>
+      <c r="M265" s="41">
+        <v>839.46</v>
+      </c>
+      <c r="N265" s="41"/>
+      <c r="O265" s="25"/>
+    </row>
+    <row r="266" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C266" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D266" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E266" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F266" s="31">
+        <v>26</v>
+      </c>
+      <c r="G266" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H266" s="31">
+        <v>10</v>
+      </c>
+      <c r="I266" s="31">
+        <v>256</v>
+      </c>
+      <c r="J266" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K266" s="26">
+        <v>0</v>
+      </c>
+      <c r="L266" s="39">
+        <v>839.46</v>
+      </c>
+      <c r="M266" s="39">
+        <v>839.46</v>
+      </c>
+      <c r="N266" s="39"/>
+      <c r="O266" s="16"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A267" s="37"/>
+      <c r="B267" s="32"/>
+      <c r="C267" s="32"/>
+      <c r="D267" s="32"/>
+      <c r="E267" s="32"/>
+      <c r="F267" s="32"/>
+      <c r="G267" s="32"/>
+      <c r="H267" s="32"/>
+      <c r="I267" s="32"/>
+      <c r="J267" s="32"/>
+      <c r="K267" s="20">
+        <v>1</v>
+      </c>
+      <c r="L267" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M267" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N267" s="40"/>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A268" s="37"/>
+      <c r="B268" s="32"/>
+      <c r="C268" s="32"/>
+      <c r="D268" s="32"/>
+      <c r="E268" s="32"/>
+      <c r="F268" s="32"/>
+      <c r="G268" s="32"/>
+      <c r="H268" s="32"/>
+      <c r="I268" s="32"/>
+      <c r="J268" s="32"/>
+      <c r="K268" s="20">
+        <v>2</v>
+      </c>
+      <c r="L268" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M268" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N268" s="40"/>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A269" s="37"/>
+      <c r="B269" s="32"/>
+      <c r="C269" s="32"/>
+      <c r="D269" s="32"/>
+      <c r="E269" s="32"/>
+      <c r="F269" s="32"/>
+      <c r="G269" s="32"/>
+      <c r="H269" s="32"/>
+      <c r="I269" s="32"/>
+      <c r="J269" s="32"/>
+      <c r="K269" s="20">
+        <v>3</v>
+      </c>
+      <c r="L269" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M269" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N269" s="40"/>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A270" s="37"/>
+      <c r="B270" s="32"/>
+      <c r="C270" s="32"/>
+      <c r="D270" s="32"/>
+      <c r="E270" s="32"/>
+      <c r="F270" s="32"/>
+      <c r="G270" s="32"/>
+      <c r="H270" s="32"/>
+      <c r="I270" s="32"/>
+      <c r="J270" s="32"/>
+      <c r="K270" s="20">
+        <v>4</v>
+      </c>
+      <c r="L270" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M270" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N270" s="40"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A271" s="37"/>
+      <c r="B271" s="32"/>
+      <c r="C271" s="32"/>
+      <c r="D271" s="32"/>
+      <c r="E271" s="32"/>
+      <c r="F271" s="32"/>
+      <c r="G271" s="32"/>
+      <c r="H271" s="32"/>
+      <c r="I271" s="32"/>
+      <c r="J271" s="32"/>
+      <c r="K271" s="20">
+        <v>5</v>
+      </c>
+      <c r="L271" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M271" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N271" s="40"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A272" s="37"/>
+      <c r="B272" s="32"/>
+      <c r="C272" s="32"/>
+      <c r="D272" s="32"/>
+      <c r="E272" s="32"/>
+      <c r="F272" s="32"/>
+      <c r="G272" s="32"/>
+      <c r="H272" s="32"/>
+      <c r="I272" s="32"/>
+      <c r="J272" s="32"/>
+      <c r="K272" s="20">
+        <v>6</v>
+      </c>
+      <c r="L272" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M272" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N272" s="40"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A273" s="37"/>
+      <c r="B273" s="32"/>
+      <c r="C273" s="32"/>
+      <c r="D273" s="32"/>
+      <c r="E273" s="32"/>
+      <c r="F273" s="32"/>
+      <c r="G273" s="32"/>
+      <c r="H273" s="32"/>
+      <c r="I273" s="32"/>
+      <c r="J273" s="32"/>
+      <c r="K273" s="20">
+        <v>7</v>
+      </c>
+      <c r="L273" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M273" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N273" s="40"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A274" s="37"/>
+      <c r="B274" s="32"/>
+      <c r="C274" s="32"/>
+      <c r="D274" s="32"/>
+      <c r="E274" s="32"/>
+      <c r="F274" s="32"/>
+      <c r="G274" s="32"/>
+      <c r="H274" s="32"/>
+      <c r="I274" s="32"/>
+      <c r="J274" s="32"/>
+      <c r="K274" s="20">
+        <v>8</v>
+      </c>
+      <c r="L274" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="M274" s="40">
+        <v>839.46</v>
+      </c>
+      <c r="N274" s="40"/>
+    </row>
+    <row r="275" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="38"/>
+      <c r="B275" s="33"/>
+      <c r="C275" s="33"/>
+      <c r="D275" s="33"/>
+      <c r="E275" s="33"/>
+      <c r="F275" s="33"/>
+      <c r="G275" s="33"/>
+      <c r="H275" s="33"/>
+      <c r="I275" s="33"/>
+      <c r="J275" s="33"/>
+      <c r="K275" s="22">
+        <v>9</v>
+      </c>
+      <c r="L275" s="41">
+        <v>839.46</v>
+      </c>
+      <c r="M275" s="41">
+        <v>839.46</v>
+      </c>
+      <c r="N275" s="41"/>
+      <c r="O275" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="132">
+    <mergeCell ref="J266:J275"/>
+    <mergeCell ref="A266:A275"/>
+    <mergeCell ref="B266:B275"/>
+    <mergeCell ref="C266:C275"/>
+    <mergeCell ref="D266:D275"/>
+    <mergeCell ref="E266:E275"/>
+    <mergeCell ref="F266:F275"/>
+    <mergeCell ref="G266:G275"/>
+    <mergeCell ref="H266:H275"/>
+    <mergeCell ref="I266:I275"/>
+    <mergeCell ref="J256:J265"/>
+    <mergeCell ref="A246:A255"/>
+    <mergeCell ref="B246:B255"/>
+    <mergeCell ref="C246:C255"/>
+    <mergeCell ref="D246:D255"/>
+    <mergeCell ref="E246:E255"/>
+    <mergeCell ref="F246:F255"/>
+    <mergeCell ref="G246:G255"/>
+    <mergeCell ref="H246:H255"/>
+    <mergeCell ref="I246:I255"/>
+    <mergeCell ref="J246:J255"/>
+    <mergeCell ref="A256:A265"/>
+    <mergeCell ref="B256:B265"/>
+    <mergeCell ref="C256:C265"/>
+    <mergeCell ref="D256:D265"/>
+    <mergeCell ref="E256:E265"/>
+    <mergeCell ref="F256:F265"/>
+    <mergeCell ref="G256:G265"/>
+    <mergeCell ref="H256:H265"/>
+    <mergeCell ref="I256:I265"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="I10:I15"/>
     <mergeCell ref="A10:A15"/>

--- a/Piranha_Project_Data.xlsx
+++ b/Piranha_Project_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\piranha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E2FF87-2DB1-4139-9A98-B9E9CEC0D24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD4EBD-11D1-4C5C-8FE5-5F564BB766B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
   <si>
     <t>Run_Name</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>mem_2pc_lenet_ef_i10_b256_config</t>
+  </si>
+  <si>
+    <t>MEMORY EXPERIMENTS</t>
   </si>
 </sst>
 </file>
@@ -499,6 +502,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,12 +518,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,14 +529,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3431,13 +3434,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3445,8 +3462,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Runs</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:prstClr val="black">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:prstClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Fixed Point Precision</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3463,13 +3487,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -16836,8 +16874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I291" sqref="I291"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E305" sqref="E305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16935,18 +16973,18 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -16956,34 +16994,34 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="34">
         <v>26</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="34">
         <v>256</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="13">
@@ -17004,16 +17042,16 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="17">
         <v>1</v>
       </c>
@@ -17032,16 +17070,16 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="20">
         <v>2</v>
       </c>
@@ -17060,16 +17098,16 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="20">
         <v>3</v>
       </c>
@@ -17088,16 +17126,16 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="20">
         <v>4</v>
       </c>
@@ -17116,16 +17154,16 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="22">
         <v>5</v>
       </c>
@@ -17144,34 +17182,34 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="34">
         <v>26</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="34">
         <v>256</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="13">
@@ -17192,16 +17230,16 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="17">
         <v>1</v>
       </c>
@@ -17220,16 +17258,16 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="20">
         <v>2</v>
       </c>
@@ -17248,16 +17286,16 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="20">
         <v>3</v>
       </c>
@@ -17276,16 +17314,16 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="20">
         <v>4</v>
       </c>
@@ -17304,16 +17342,16 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="22">
         <v>5</v>
       </c>
@@ -17332,34 +17370,34 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="34">
         <v>26</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="34">
         <v>256</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="26">
@@ -17380,16 +17418,16 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="20">
         <v>1</v>
       </c>
@@ -17408,16 +17446,16 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="20">
         <v>2</v>
       </c>
@@ -17436,16 +17474,16 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="20">
         <v>3</v>
       </c>
@@ -17464,16 +17502,16 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="20">
         <v>4</v>
       </c>
@@ -17492,16 +17530,16 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="22">
         <v>5</v>
       </c>
@@ -17520,34 +17558,34 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="34">
         <v>26</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="34">
         <v>10</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="34">
         <v>256</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="26">
@@ -17568,16 +17606,16 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="20">
         <v>1</v>
       </c>
@@ -17596,16 +17634,16 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="20">
         <v>2</v>
       </c>
@@ -17624,16 +17662,16 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="20">
         <v>3</v>
       </c>
@@ -17652,16 +17690,16 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="20">
         <v>4</v>
       </c>
@@ -17680,16 +17718,16 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="20">
         <v>5</v>
       </c>
@@ -17708,16 +17746,16 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="20">
         <v>6</v>
       </c>
@@ -17736,16 +17774,16 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="20">
         <v>7</v>
       </c>
@@ -17764,16 +17802,16 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="20">
         <v>8</v>
       </c>
@@ -17792,16 +17830,16 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
       <c r="K31" s="22">
         <v>9</v>
       </c>
@@ -17820,34 +17858,34 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="34">
         <v>26</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="34">
         <v>30</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="34">
         <v>256</v>
       </c>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="26">
@@ -17868,16 +17906,16 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="20">
         <v>1</v>
       </c>
@@ -17896,16 +17934,16 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="20">
         <v>2</v>
       </c>
@@ -17924,16 +17962,16 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="20">
         <v>3</v>
       </c>
@@ -17952,16 +17990,16 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
       <c r="K36" s="20">
         <v>4</v>
       </c>
@@ -17980,16 +18018,16 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="20">
         <v>5</v>
       </c>
@@ -18008,16 +18046,16 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="20">
         <v>6</v>
       </c>
@@ -18036,16 +18074,16 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="20">
         <v>7</v>
       </c>
@@ -18064,16 +18102,16 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="20">
         <v>8</v>
       </c>
@@ -18092,16 +18130,16 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
       <c r="K41" s="22">
         <v>9</v>
       </c>
@@ -18120,34 +18158,34 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="34">
         <v>26</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G42" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="34">
         <v>30</v>
       </c>
-      <c r="I42" s="31">
+      <c r="I42" s="34">
         <v>256</v>
       </c>
-      <c r="J42" s="31" t="s">
+      <c r="J42" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K42" s="26">
@@ -18168,16 +18206,16 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="20">
         <v>1</v>
       </c>
@@ -18196,16 +18234,16 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
       <c r="K44" s="20">
         <v>2</v>
       </c>
@@ -18224,16 +18262,16 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="20">
         <v>3</v>
       </c>
@@ -18252,16 +18290,16 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="20">
         <v>4</v>
       </c>
@@ -18280,16 +18318,16 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
       <c r="K47" s="20">
         <v>5</v>
       </c>
@@ -18308,16 +18346,16 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
       <c r="K48" s="20">
         <v>6</v>
       </c>
@@ -18336,16 +18374,16 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
       <c r="K49" s="20">
         <v>7</v>
       </c>
@@ -18364,16 +18402,16 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
       <c r="K50" s="20">
         <v>8</v>
       </c>
@@ -18392,16 +18430,16 @@
       </c>
     </row>
     <row r="51" spans="1:20" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
       <c r="K51" s="22">
         <v>9</v>
       </c>
@@ -18420,34 +18458,34 @@
       </c>
     </row>
     <row r="52" spans="1:20" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="34">
         <v>12</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="G52" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="31">
+      <c r="H52" s="34">
         <v>30</v>
       </c>
-      <c r="I52" s="31">
+      <c r="I52" s="34">
         <v>256</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K52" s="26">
@@ -18468,16 +18506,16 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
       <c r="K53" s="20">
         <v>1</v>
       </c>
@@ -18496,16 +18534,16 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
       <c r="K54" s="20">
         <v>2</v>
       </c>
@@ -18524,16 +18562,16 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
       <c r="K55" s="20">
         <v>3</v>
       </c>
@@ -18552,16 +18590,16 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
       <c r="K56" s="20">
         <v>4</v>
       </c>
@@ -18580,16 +18618,16 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
       <c r="K57" s="20">
         <v>5</v>
       </c>
@@ -18608,16 +18646,16 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
       <c r="K58" s="20">
         <v>6</v>
       </c>
@@ -18636,16 +18674,16 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
       <c r="K59" s="20">
         <v>7</v>
       </c>
@@ -18664,16 +18702,16 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
       <c r="K60" s="20">
         <v>8</v>
       </c>
@@ -18692,16 +18730,16 @@
       </c>
     </row>
     <row r="61" spans="1:20" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
       <c r="K61" s="22">
         <v>9</v>
       </c>
@@ -18720,34 +18758,34 @@
       </c>
     </row>
     <row r="62" spans="1:20" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="31">
+      <c r="F62" s="34">
         <v>12</v>
       </c>
-      <c r="G62" s="31" t="s">
+      <c r="G62" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="31">
+      <c r="H62" s="34">
         <v>30</v>
       </c>
-      <c r="I62" s="31">
+      <c r="I62" s="34">
         <v>256</v>
       </c>
-      <c r="J62" s="31" t="s">
+      <c r="J62" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K62" s="26">
@@ -18784,16 +18822,16 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
       <c r="K63" s="20">
         <v>1</v>
       </c>
@@ -18828,16 +18866,16 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
       <c r="K64" s="20">
         <v>2</v>
       </c>
@@ -18872,16 +18910,16 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
       <c r="K65" s="20">
         <v>3</v>
       </c>
@@ -18916,16 +18954,16 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
       <c r="K66" s="20">
         <v>4</v>
       </c>
@@ -18960,16 +18998,16 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
       <c r="K67" s="20">
         <v>5</v>
       </c>
@@ -19004,16 +19042,16 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
       <c r="K68" s="20">
         <v>6</v>
       </c>
@@ -19048,16 +19086,16 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
       <c r="K69" s="20">
         <v>7</v>
       </c>
@@ -19092,16 +19130,16 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
       <c r="K70" s="20">
         <v>8</v>
       </c>
@@ -19136,16 +19174,16 @@
       </c>
     </row>
     <row r="71" spans="1:20" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
       <c r="K71" s="22">
         <v>9</v>
       </c>
@@ -19180,34 +19218,34 @@
       </c>
     </row>
     <row r="72" spans="1:20" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F72" s="34">
         <v>26</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="G72" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="31">
+      <c r="H72" s="34">
         <v>30</v>
       </c>
-      <c r="I72" s="31">
+      <c r="I72" s="34">
         <v>256</v>
       </c>
-      <c r="J72" s="31" t="s">
+      <c r="J72" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K72" s="26">
@@ -19228,16 +19266,16 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
       <c r="K73" s="20">
         <v>1</v>
       </c>
@@ -19256,16 +19294,16 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
       <c r="K74" s="20">
         <v>2</v>
       </c>
@@ -19284,16 +19322,16 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
       <c r="K75" s="20">
         <v>3</v>
       </c>
@@ -19312,16 +19350,16 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
       <c r="K76" s="20">
         <v>4</v>
       </c>
@@ -19340,16 +19378,16 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
       <c r="K77" s="20">
         <v>5</v>
       </c>
@@ -19368,16 +19406,16 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
       <c r="K78" s="20">
         <v>6</v>
       </c>
@@ -19396,16 +19434,16 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
       <c r="K79" s="20">
         <v>7</v>
       </c>
@@ -19424,16 +19462,16 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
       <c r="K80" s="20">
         <v>8</v>
       </c>
@@ -19452,16 +19490,16 @@
       </c>
     </row>
     <row r="81" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
       <c r="K81" s="22">
         <v>9</v>
       </c>
@@ -20437,1091 +20475,1004 @@
       <c r="O234" s="8"/>
     </row>
     <row r="235" spans="1:15" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B235" s="34"/>
-      <c r="C235" s="34"/>
-      <c r="D235" s="34"/>
-      <c r="E235" s="34"/>
-      <c r="F235" s="34"/>
-      <c r="G235" s="34"/>
-      <c r="H235" s="34"/>
-      <c r="I235" s="34"/>
-      <c r="J235" s="35"/>
+      <c r="A235" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B235" s="40"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="40"/>
+      <c r="E235" s="40"/>
+      <c r="F235" s="40"/>
+      <c r="G235" s="40"/>
+      <c r="H235" s="40"/>
+      <c r="I235" s="40"/>
+      <c r="J235" s="41"/>
       <c r="K235" s="9"/>
       <c r="L235" s="10"/>
       <c r="M235" s="10"/>
       <c r="O235" s="12"/>
     </row>
     <row r="236" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="36" t="s">
+      <c r="A236" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B236" s="31" t="s">
+      <c r="B236" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C236" s="31" t="s">
+      <c r="C236" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D236" s="31" t="s">
+      <c r="D236" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E236" s="31" t="s">
+      <c r="E236" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F236" s="31">
+      <c r="F236" s="34">
         <v>12</v>
       </c>
-      <c r="G236" s="31" t="s">
+      <c r="G236" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H236" s="31">
+      <c r="H236" s="34">
         <v>10</v>
       </c>
-      <c r="I236" s="31">
+      <c r="I236" s="34">
         <v>256</v>
       </c>
-      <c r="J236" s="31" t="s">
+      <c r="J236" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K236" s="26">
         <v>0</v>
       </c>
-      <c r="L236" s="39">
+      <c r="L236" s="31">
         <v>21.65</v>
       </c>
-      <c r="M236" s="39">
+      <c r="M236" s="31">
         <v>21.65</v>
       </c>
-      <c r="N236" s="39"/>
+      <c r="N236" s="31"/>
       <c r="O236" s="16"/>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A237" s="37"/>
-      <c r="B237" s="32"/>
-      <c r="C237" s="32"/>
-      <c r="D237" s="32"/>
-      <c r="E237" s="32"/>
-      <c r="F237" s="32"/>
-      <c r="G237" s="32"/>
-      <c r="H237" s="32"/>
-      <c r="I237" s="32"/>
-      <c r="J237" s="32"/>
+      <c r="A237" s="38"/>
+      <c r="B237" s="35"/>
+      <c r="C237" s="35"/>
+      <c r="D237" s="35"/>
+      <c r="E237" s="35"/>
+      <c r="F237" s="35"/>
+      <c r="G237" s="35"/>
+      <c r="H237" s="35"/>
+      <c r="I237" s="35"/>
+      <c r="J237" s="35"/>
       <c r="K237" s="20">
         <v>1</v>
       </c>
-      <c r="L237" s="40">
+      <c r="L237" s="32">
         <v>21.65</v>
       </c>
-      <c r="M237" s="40">
+      <c r="M237" s="32">
         <v>21.65</v>
       </c>
-      <c r="N237" s="40"/>
+      <c r="N237" s="32"/>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A238" s="37"/>
-      <c r="B238" s="32"/>
-      <c r="C238" s="32"/>
-      <c r="D238" s="32"/>
-      <c r="E238" s="32"/>
-      <c r="F238" s="32"/>
-      <c r="G238" s="32"/>
-      <c r="H238" s="32"/>
-      <c r="I238" s="32"/>
-      <c r="J238" s="32"/>
+      <c r="A238" s="38"/>
+      <c r="B238" s="35"/>
+      <c r="C238" s="35"/>
+      <c r="D238" s="35"/>
+      <c r="E238" s="35"/>
+      <c r="F238" s="35"/>
+      <c r="G238" s="35"/>
+      <c r="H238" s="35"/>
+      <c r="I238" s="35"/>
+      <c r="J238" s="35"/>
       <c r="K238" s="20">
         <v>2</v>
       </c>
-      <c r="L238" s="40">
+      <c r="L238" s="32">
         <v>21.65</v>
       </c>
-      <c r="M238" s="40">
+      <c r="M238" s="32">
         <v>21.65</v>
       </c>
-      <c r="N238" s="40"/>
+      <c r="N238" s="32"/>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A239" s="37"/>
-      <c r="B239" s="32"/>
-      <c r="C239" s="32"/>
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="32"/>
-      <c r="H239" s="32"/>
-      <c r="I239" s="32"/>
-      <c r="J239" s="32"/>
+      <c r="A239" s="38"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="35"/>
+      <c r="D239" s="35"/>
+      <c r="E239" s="35"/>
+      <c r="F239" s="35"/>
+      <c r="G239" s="35"/>
+      <c r="H239" s="35"/>
+      <c r="I239" s="35"/>
+      <c r="J239" s="35"/>
       <c r="K239" s="20">
         <v>3</v>
       </c>
-      <c r="L239" s="40">
+      <c r="L239" s="32">
         <v>21.65</v>
       </c>
-      <c r="M239" s="40">
+      <c r="M239" s="32">
         <v>21.65</v>
       </c>
-      <c r="N239" s="40"/>
+      <c r="N239" s="32"/>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A240" s="37"/>
-      <c r="B240" s="32"/>
-      <c r="C240" s="32"/>
-      <c r="D240" s="32"/>
-      <c r="E240" s="32"/>
-      <c r="F240" s="32"/>
-      <c r="G240" s="32"/>
-      <c r="H240" s="32"/>
-      <c r="I240" s="32"/>
-      <c r="J240" s="32"/>
+      <c r="A240" s="38"/>
+      <c r="B240" s="35"/>
+      <c r="C240" s="35"/>
+      <c r="D240" s="35"/>
+      <c r="E240" s="35"/>
+      <c r="F240" s="35"/>
+      <c r="G240" s="35"/>
+      <c r="H240" s="35"/>
+      <c r="I240" s="35"/>
+      <c r="J240" s="35"/>
       <c r="K240" s="20">
         <v>4</v>
       </c>
-      <c r="L240" s="40">
+      <c r="L240" s="32">
         <v>21.65</v>
       </c>
-      <c r="M240" s="40">
+      <c r="M240" s="32">
         <v>21.65</v>
       </c>
-      <c r="N240" s="40"/>
+      <c r="N240" s="32"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A241" s="37"/>
-      <c r="B241" s="32"/>
-      <c r="C241" s="32"/>
-      <c r="D241" s="32"/>
-      <c r="E241" s="32"/>
-      <c r="F241" s="32"/>
-      <c r="G241" s="32"/>
-      <c r="H241" s="32"/>
-      <c r="I241" s="32"/>
-      <c r="J241" s="32"/>
+      <c r="A241" s="38"/>
+      <c r="B241" s="35"/>
+      <c r="C241" s="35"/>
+      <c r="D241" s="35"/>
+      <c r="E241" s="35"/>
+      <c r="F241" s="35"/>
+      <c r="G241" s="35"/>
+      <c r="H241" s="35"/>
+      <c r="I241" s="35"/>
+      <c r="J241" s="35"/>
       <c r="K241" s="20">
         <v>5</v>
       </c>
-      <c r="L241" s="40">
+      <c r="L241" s="32">
         <v>21.65</v>
       </c>
-      <c r="M241" s="40">
+      <c r="M241" s="32">
         <v>21.65</v>
       </c>
-      <c r="N241" s="40"/>
+      <c r="N241" s="32"/>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A242" s="37"/>
-      <c r="B242" s="32"/>
-      <c r="C242" s="32"/>
-      <c r="D242" s="32"/>
-      <c r="E242" s="32"/>
-      <c r="F242" s="32"/>
-      <c r="G242" s="32"/>
-      <c r="H242" s="32"/>
-      <c r="I242" s="32"/>
-      <c r="J242" s="32"/>
+      <c r="A242" s="38"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="35"/>
+      <c r="D242" s="35"/>
+      <c r="E242" s="35"/>
+      <c r="F242" s="35"/>
+      <c r="G242" s="35"/>
+      <c r="H242" s="35"/>
+      <c r="I242" s="35"/>
+      <c r="J242" s="35"/>
       <c r="K242" s="20">
         <v>6</v>
       </c>
-      <c r="L242" s="40">
+      <c r="L242" s="32">
         <v>21.65</v>
       </c>
-      <c r="M242" s="40">
+      <c r="M242" s="32">
         <v>21.65</v>
       </c>
-      <c r="N242" s="40"/>
+      <c r="N242" s="32"/>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A243" s="37"/>
-      <c r="B243" s="32"/>
-      <c r="C243" s="32"/>
-      <c r="D243" s="32"/>
-      <c r="E243" s="32"/>
-      <c r="F243" s="32"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="32"/>
-      <c r="I243" s="32"/>
-      <c r="J243" s="32"/>
+      <c r="A243" s="38"/>
+      <c r="B243" s="35"/>
+      <c r="C243" s="35"/>
+      <c r="D243" s="35"/>
+      <c r="E243" s="35"/>
+      <c r="F243" s="35"/>
+      <c r="G243" s="35"/>
+      <c r="H243" s="35"/>
+      <c r="I243" s="35"/>
+      <c r="J243" s="35"/>
       <c r="K243" s="20">
         <v>7</v>
       </c>
-      <c r="L243" s="40">
+      <c r="L243" s="32">
         <v>21.65</v>
       </c>
-      <c r="M243" s="40">
+      <c r="M243" s="32">
         <v>21.65</v>
       </c>
-      <c r="N243" s="40"/>
+      <c r="N243" s="32"/>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A244" s="37"/>
-      <c r="B244" s="32"/>
-      <c r="C244" s="32"/>
-      <c r="D244" s="32"/>
-      <c r="E244" s="32"/>
-      <c r="F244" s="32"/>
-      <c r="G244" s="32"/>
-      <c r="H244" s="32"/>
-      <c r="I244" s="32"/>
-      <c r="J244" s="32"/>
+      <c r="A244" s="38"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="35"/>
+      <c r="D244" s="35"/>
+      <c r="E244" s="35"/>
+      <c r="F244" s="35"/>
+      <c r="G244" s="35"/>
+      <c r="H244" s="35"/>
+      <c r="I244" s="35"/>
+      <c r="J244" s="35"/>
       <c r="K244" s="20">
         <v>8</v>
       </c>
-      <c r="L244" s="40">
+      <c r="L244" s="32">
         <v>21.65</v>
       </c>
-      <c r="M244" s="40">
+      <c r="M244" s="32">
         <v>21.65</v>
       </c>
-      <c r="N244" s="40"/>
+      <c r="N244" s="32"/>
     </row>
     <row r="245" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="38"/>
-      <c r="B245" s="33"/>
-      <c r="C245" s="33"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="33"/>
-      <c r="F245" s="33"/>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
-      <c r="I245" s="33"/>
-      <c r="J245" s="33"/>
+      <c r="A245" s="39"/>
+      <c r="B245" s="36"/>
+      <c r="C245" s="36"/>
+      <c r="D245" s="36"/>
+      <c r="E245" s="36"/>
+      <c r="F245" s="36"/>
+      <c r="G245" s="36"/>
+      <c r="H245" s="36"/>
+      <c r="I245" s="36"/>
+      <c r="J245" s="36"/>
       <c r="K245" s="22">
         <v>9</v>
       </c>
-      <c r="L245" s="41">
+      <c r="L245" s="33">
         <v>21.65</v>
       </c>
-      <c r="M245" s="41">
+      <c r="M245" s="33">
         <v>21.65</v>
       </c>
-      <c r="N245" s="41"/>
+      <c r="N245" s="33"/>
       <c r="O245" s="25"/>
     </row>
     <row r="246" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="36" t="s">
+      <c r="A246" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B246" s="31" t="s">
+      <c r="B246" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C246" s="31" t="s">
+      <c r="C246" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D246" s="31" t="s">
+      <c r="D246" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E246" s="31" t="s">
+      <c r="E246" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F246" s="31">
+      <c r="F246" s="34">
         <v>26</v>
       </c>
-      <c r="G246" s="31" t="s">
+      <c r="G246" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H246" s="31">
+      <c r="H246" s="34">
         <v>10</v>
       </c>
-      <c r="I246" s="31">
+      <c r="I246" s="34">
         <v>256</v>
       </c>
-      <c r="J246" s="31" t="s">
+      <c r="J246" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K246" s="26">
         <v>0</v>
       </c>
-      <c r="L246" s="39">
+      <c r="L246" s="31">
         <v>21.65</v>
       </c>
-      <c r="M246" s="39">
+      <c r="M246" s="31">
         <v>21.65</v>
       </c>
-      <c r="N246" s="39"/>
+      <c r="N246" s="31"/>
       <c r="O246" s="16"/>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A247" s="37"/>
-      <c r="B247" s="32"/>
-      <c r="C247" s="32"/>
-      <c r="D247" s="32"/>
-      <c r="E247" s="32"/>
-      <c r="F247" s="32"/>
-      <c r="G247" s="32"/>
-      <c r="H247" s="32"/>
-      <c r="I247" s="32"/>
-      <c r="J247" s="32"/>
+      <c r="A247" s="38"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="35"/>
+      <c r="D247" s="35"/>
+      <c r="E247" s="35"/>
+      <c r="F247" s="35"/>
+      <c r="G247" s="35"/>
+      <c r="H247" s="35"/>
+      <c r="I247" s="35"/>
+      <c r="J247" s="35"/>
       <c r="K247" s="20">
         <v>1</v>
       </c>
-      <c r="L247" s="40">
+      <c r="L247" s="32">
         <v>21.65</v>
       </c>
-      <c r="M247" s="40">
+      <c r="M247" s="32">
         <v>21.65</v>
       </c>
-      <c r="N247" s="40"/>
+      <c r="N247" s="32"/>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A248" s="37"/>
-      <c r="B248" s="32"/>
-      <c r="C248" s="32"/>
-      <c r="D248" s="32"/>
-      <c r="E248" s="32"/>
-      <c r="F248" s="32"/>
-      <c r="G248" s="32"/>
-      <c r="H248" s="32"/>
-      <c r="I248" s="32"/>
-      <c r="J248" s="32"/>
+      <c r="A248" s="38"/>
+      <c r="B248" s="35"/>
+      <c r="C248" s="35"/>
+      <c r="D248" s="35"/>
+      <c r="E248" s="35"/>
+      <c r="F248" s="35"/>
+      <c r="G248" s="35"/>
+      <c r="H248" s="35"/>
+      <c r="I248" s="35"/>
+      <c r="J248" s="35"/>
       <c r="K248" s="20">
         <v>2</v>
       </c>
-      <c r="L248" s="40">
+      <c r="L248" s="32">
         <v>21.65</v>
       </c>
-      <c r="M248" s="40">
+      <c r="M248" s="32">
         <v>21.65</v>
       </c>
-      <c r="N248" s="40"/>
+      <c r="N248" s="32"/>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A249" s="37"/>
-      <c r="B249" s="32"/>
-      <c r="C249" s="32"/>
-      <c r="D249" s="32"/>
-      <c r="E249" s="32"/>
-      <c r="F249" s="32"/>
-      <c r="G249" s="32"/>
-      <c r="H249" s="32"/>
-      <c r="I249" s="32"/>
-      <c r="J249" s="32"/>
+      <c r="A249" s="38"/>
+      <c r="B249" s="35"/>
+      <c r="C249" s="35"/>
+      <c r="D249" s="35"/>
+      <c r="E249" s="35"/>
+      <c r="F249" s="35"/>
+      <c r="G249" s="35"/>
+      <c r="H249" s="35"/>
+      <c r="I249" s="35"/>
+      <c r="J249" s="35"/>
       <c r="K249" s="20">
         <v>3</v>
       </c>
-      <c r="L249" s="40">
+      <c r="L249" s="32">
         <v>21.65</v>
       </c>
-      <c r="M249" s="40">
+      <c r="M249" s="32">
         <v>21.65</v>
       </c>
-      <c r="N249" s="40"/>
+      <c r="N249" s="32"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A250" s="37"/>
-      <c r="B250" s="32"/>
-      <c r="C250" s="32"/>
-      <c r="D250" s="32"/>
-      <c r="E250" s="32"/>
-      <c r="F250" s="32"/>
-      <c r="G250" s="32"/>
-      <c r="H250" s="32"/>
-      <c r="I250" s="32"/>
-      <c r="J250" s="32"/>
+      <c r="A250" s="38"/>
+      <c r="B250" s="35"/>
+      <c r="C250" s="35"/>
+      <c r="D250" s="35"/>
+      <c r="E250" s="35"/>
+      <c r="F250" s="35"/>
+      <c r="G250" s="35"/>
+      <c r="H250" s="35"/>
+      <c r="I250" s="35"/>
+      <c r="J250" s="35"/>
       <c r="K250" s="20">
         <v>4</v>
       </c>
-      <c r="L250" s="40">
+      <c r="L250" s="32">
         <v>21.65</v>
       </c>
-      <c r="M250" s="40">
+      <c r="M250" s="32">
         <v>21.65</v>
       </c>
-      <c r="N250" s="40"/>
+      <c r="N250" s="32"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A251" s="37"/>
-      <c r="B251" s="32"/>
-      <c r="C251" s="32"/>
-      <c r="D251" s="32"/>
-      <c r="E251" s="32"/>
-      <c r="F251" s="32"/>
-      <c r="G251" s="32"/>
-      <c r="H251" s="32"/>
-      <c r="I251" s="32"/>
-      <c r="J251" s="32"/>
+      <c r="A251" s="38"/>
+      <c r="B251" s="35"/>
+      <c r="C251" s="35"/>
+      <c r="D251" s="35"/>
+      <c r="E251" s="35"/>
+      <c r="F251" s="35"/>
+      <c r="G251" s="35"/>
+      <c r="H251" s="35"/>
+      <c r="I251" s="35"/>
+      <c r="J251" s="35"/>
       <c r="K251" s="20">
         <v>5</v>
       </c>
-      <c r="L251" s="40">
+      <c r="L251" s="32">
         <v>21.65</v>
       </c>
-      <c r="M251" s="40">
+      <c r="M251" s="32">
         <v>21.65</v>
       </c>
-      <c r="N251" s="40"/>
+      <c r="N251" s="32"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A252" s="37"/>
-      <c r="B252" s="32"/>
-      <c r="C252" s="32"/>
-      <c r="D252" s="32"/>
-      <c r="E252" s="32"/>
-      <c r="F252" s="32"/>
-      <c r="G252" s="32"/>
-      <c r="H252" s="32"/>
-      <c r="I252" s="32"/>
-      <c r="J252" s="32"/>
+      <c r="A252" s="38"/>
+      <c r="B252" s="35"/>
+      <c r="C252" s="35"/>
+      <c r="D252" s="35"/>
+      <c r="E252" s="35"/>
+      <c r="F252" s="35"/>
+      <c r="G252" s="35"/>
+      <c r="H252" s="35"/>
+      <c r="I252" s="35"/>
+      <c r="J252" s="35"/>
       <c r="K252" s="20">
         <v>6</v>
       </c>
-      <c r="L252" s="40">
+      <c r="L252" s="32">
         <v>21.65</v>
       </c>
-      <c r="M252" s="40">
+      <c r="M252" s="32">
         <v>21.65</v>
       </c>
-      <c r="N252" s="40"/>
+      <c r="N252" s="32"/>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A253" s="37"/>
-      <c r="B253" s="32"/>
-      <c r="C253" s="32"/>
-      <c r="D253" s="32"/>
-      <c r="E253" s="32"/>
-      <c r="F253" s="32"/>
-      <c r="G253" s="32"/>
-      <c r="H253" s="32"/>
-      <c r="I253" s="32"/>
-      <c r="J253" s="32"/>
+      <c r="A253" s="38"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="35"/>
+      <c r="D253" s="35"/>
+      <c r="E253" s="35"/>
+      <c r="F253" s="35"/>
+      <c r="G253" s="35"/>
+      <c r="H253" s="35"/>
+      <c r="I253" s="35"/>
+      <c r="J253" s="35"/>
       <c r="K253" s="20">
         <v>7</v>
       </c>
-      <c r="L253" s="40">
+      <c r="L253" s="32">
         <v>21.65</v>
       </c>
-      <c r="M253" s="40">
+      <c r="M253" s="32">
         <v>21.65</v>
       </c>
-      <c r="N253" s="40"/>
+      <c r="N253" s="32"/>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A254" s="37"/>
-      <c r="B254" s="32"/>
-      <c r="C254" s="32"/>
-      <c r="D254" s="32"/>
-      <c r="E254" s="32"/>
-      <c r="F254" s="32"/>
-      <c r="G254" s="32"/>
-      <c r="H254" s="32"/>
-      <c r="I254" s="32"/>
-      <c r="J254" s="32"/>
+      <c r="A254" s="38"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="35"/>
+      <c r="D254" s="35"/>
+      <c r="E254" s="35"/>
+      <c r="F254" s="35"/>
+      <c r="G254" s="35"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="35"/>
+      <c r="J254" s="35"/>
       <c r="K254" s="20">
         <v>8</v>
       </c>
-      <c r="L254" s="40">
+      <c r="L254" s="32">
         <v>21.65</v>
       </c>
-      <c r="M254" s="40">
+      <c r="M254" s="32">
         <v>21.65</v>
       </c>
-      <c r="N254" s="40"/>
+      <c r="N254" s="32"/>
     </row>
     <row r="255" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="38"/>
-      <c r="B255" s="33"/>
-      <c r="C255" s="33"/>
-      <c r="D255" s="33"/>
-      <c r="E255" s="33"/>
-      <c r="F255" s="33"/>
-      <c r="G255" s="33"/>
-      <c r="H255" s="33"/>
-      <c r="I255" s="33"/>
-      <c r="J255" s="33"/>
+      <c r="A255" s="39"/>
+      <c r="B255" s="36"/>
+      <c r="C255" s="36"/>
+      <c r="D255" s="36"/>
+      <c r="E255" s="36"/>
+      <c r="F255" s="36"/>
+      <c r="G255" s="36"/>
+      <c r="H255" s="36"/>
+      <c r="I255" s="36"/>
+      <c r="J255" s="36"/>
       <c r="K255" s="22">
         <v>9</v>
       </c>
-      <c r="L255" s="41">
+      <c r="L255" s="33">
         <v>21.65</v>
       </c>
-      <c r="M255" s="41">
+      <c r="M255" s="33">
         <v>21.65</v>
       </c>
-      <c r="N255" s="41"/>
+      <c r="N255" s="33"/>
       <c r="O255" s="25"/>
     </row>
     <row r="256" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="36" t="s">
+      <c r="A256" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B256" s="31" t="s">
+      <c r="B256" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C256" s="31" t="s">
+      <c r="C256" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D256" s="31" t="s">
+      <c r="D256" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E256" s="31" t="s">
+      <c r="E256" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F256" s="31">
+      <c r="F256" s="34">
         <v>12</v>
       </c>
-      <c r="G256" s="31" t="s">
+      <c r="G256" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H256" s="31">
+      <c r="H256" s="34">
         <v>10</v>
       </c>
-      <c r="I256" s="31">
+      <c r="I256" s="34">
         <v>256</v>
       </c>
-      <c r="J256" s="31" t="s">
+      <c r="J256" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K256" s="26">
         <v>0</v>
       </c>
-      <c r="L256" s="39">
+      <c r="L256" s="31">
         <v>839.46</v>
       </c>
-      <c r="M256" s="39">
+      <c r="M256" s="31">
         <v>839.46</v>
       </c>
-      <c r="N256" s="39"/>
+      <c r="N256" s="31"/>
       <c r="O256" s="16"/>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A257" s="37"/>
-      <c r="B257" s="32"/>
-      <c r="C257" s="32"/>
-      <c r="D257" s="32"/>
-      <c r="E257" s="32"/>
-      <c r="F257" s="32"/>
-      <c r="G257" s="32"/>
-      <c r="H257" s="32"/>
-      <c r="I257" s="32"/>
-      <c r="J257" s="32"/>
+      <c r="A257" s="38"/>
+      <c r="B257" s="35"/>
+      <c r="C257" s="35"/>
+      <c r="D257" s="35"/>
+      <c r="E257" s="35"/>
+      <c r="F257" s="35"/>
+      <c r="G257" s="35"/>
+      <c r="H257" s="35"/>
+      <c r="I257" s="35"/>
+      <c r="J257" s="35"/>
       <c r="K257" s="20">
         <v>1</v>
       </c>
-      <c r="L257" s="40">
+      <c r="L257" s="32">
         <v>839.46</v>
       </c>
-      <c r="M257" s="40">
+      <c r="M257" s="32">
         <v>839.46</v>
       </c>
-      <c r="N257" s="40"/>
+      <c r="N257" s="32"/>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A258" s="37"/>
-      <c r="B258" s="32"/>
-      <c r="C258" s="32"/>
-      <c r="D258" s="32"/>
-      <c r="E258" s="32"/>
-      <c r="F258" s="32"/>
-      <c r="G258" s="32"/>
-      <c r="H258" s="32"/>
-      <c r="I258" s="32"/>
-      <c r="J258" s="32"/>
+      <c r="A258" s="38"/>
+      <c r="B258" s="35"/>
+      <c r="C258" s="35"/>
+      <c r="D258" s="35"/>
+      <c r="E258" s="35"/>
+      <c r="F258" s="35"/>
+      <c r="G258" s="35"/>
+      <c r="H258" s="35"/>
+      <c r="I258" s="35"/>
+      <c r="J258" s="35"/>
       <c r="K258" s="20">
         <v>2</v>
       </c>
-      <c r="L258" s="40">
+      <c r="L258" s="32">
         <v>839.46</v>
       </c>
-      <c r="M258" s="40">
+      <c r="M258" s="32">
         <v>839.46</v>
       </c>
-      <c r="N258" s="40"/>
+      <c r="N258" s="32"/>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A259" s="37"/>
-      <c r="B259" s="32"/>
-      <c r="C259" s="32"/>
-      <c r="D259" s="32"/>
-      <c r="E259" s="32"/>
-      <c r="F259" s="32"/>
-      <c r="G259" s="32"/>
-      <c r="H259" s="32"/>
-      <c r="I259" s="32"/>
-      <c r="J259" s="32"/>
+      <c r="A259" s="38"/>
+      <c r="B259" s="35"/>
+      <c r="C259" s="35"/>
+      <c r="D259" s="35"/>
+      <c r="E259" s="35"/>
+      <c r="F259" s="35"/>
+      <c r="G259" s="35"/>
+      <c r="H259" s="35"/>
+      <c r="I259" s="35"/>
+      <c r="J259" s="35"/>
       <c r="K259" s="20">
         <v>3</v>
       </c>
-      <c r="L259" s="40">
+      <c r="L259" s="32">
         <v>839.46</v>
       </c>
-      <c r="M259" s="40">
+      <c r="M259" s="32">
         <v>839.46</v>
       </c>
-      <c r="N259" s="40"/>
+      <c r="N259" s="32"/>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A260" s="37"/>
-      <c r="B260" s="32"/>
-      <c r="C260" s="32"/>
-      <c r="D260" s="32"/>
-      <c r="E260" s="32"/>
-      <c r="F260" s="32"/>
-      <c r="G260" s="32"/>
-      <c r="H260" s="32"/>
-      <c r="I260" s="32"/>
-      <c r="J260" s="32"/>
+      <c r="A260" s="38"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="35"/>
+      <c r="D260" s="35"/>
+      <c r="E260" s="35"/>
+      <c r="F260" s="35"/>
+      <c r="G260" s="35"/>
+      <c r="H260" s="35"/>
+      <c r="I260" s="35"/>
+      <c r="J260" s="35"/>
       <c r="K260" s="20">
         <v>4</v>
       </c>
-      <c r="L260" s="40">
+      <c r="L260" s="32">
         <v>839.46</v>
       </c>
-      <c r="M260" s="40">
+      <c r="M260" s="32">
         <v>839.46</v>
       </c>
-      <c r="N260" s="40"/>
+      <c r="N260" s="32"/>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A261" s="37"/>
-      <c r="B261" s="32"/>
-      <c r="C261" s="32"/>
-      <c r="D261" s="32"/>
-      <c r="E261" s="32"/>
-      <c r="F261" s="32"/>
-      <c r="G261" s="32"/>
-      <c r="H261" s="32"/>
-      <c r="I261" s="32"/>
-      <c r="J261" s="32"/>
+      <c r="A261" s="38"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="35"/>
+      <c r="D261" s="35"/>
+      <c r="E261" s="35"/>
+      <c r="F261" s="35"/>
+      <c r="G261" s="35"/>
+      <c r="H261" s="35"/>
+      <c r="I261" s="35"/>
+      <c r="J261" s="35"/>
       <c r="K261" s="20">
         <v>5</v>
       </c>
-      <c r="L261" s="40">
+      <c r="L261" s="32">
         <v>839.46</v>
       </c>
-      <c r="M261" s="40">
+      <c r="M261" s="32">
         <v>839.46</v>
       </c>
-      <c r="N261" s="40"/>
+      <c r="N261" s="32"/>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A262" s="37"/>
-      <c r="B262" s="32"/>
-      <c r="C262" s="32"/>
-      <c r="D262" s="32"/>
-      <c r="E262" s="32"/>
-      <c r="F262" s="32"/>
-      <c r="G262" s="32"/>
-      <c r="H262" s="32"/>
-      <c r="I262" s="32"/>
-      <c r="J262" s="32"/>
+      <c r="A262" s="38"/>
+      <c r="B262" s="35"/>
+      <c r="C262" s="35"/>
+      <c r="D262" s="35"/>
+      <c r="E262" s="35"/>
+      <c r="F262" s="35"/>
+      <c r="G262" s="35"/>
+      <c r="H262" s="35"/>
+      <c r="I262" s="35"/>
+      <c r="J262" s="35"/>
       <c r="K262" s="20">
         <v>6</v>
       </c>
-      <c r="L262" s="40">
+      <c r="L262" s="32">
         <v>839.46</v>
       </c>
-      <c r="M262" s="40">
+      <c r="M262" s="32">
         <v>839.46</v>
       </c>
-      <c r="N262" s="40"/>
+      <c r="N262" s="32"/>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A263" s="37"/>
-      <c r="B263" s="32"/>
-      <c r="C263" s="32"/>
-      <c r="D263" s="32"/>
-      <c r="E263" s="32"/>
-      <c r="F263" s="32"/>
-      <c r="G263" s="32"/>
-      <c r="H263" s="32"/>
-      <c r="I263" s="32"/>
-      <c r="J263" s="32"/>
+      <c r="A263" s="38"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="35"/>
+      <c r="D263" s="35"/>
+      <c r="E263" s="35"/>
+      <c r="F263" s="35"/>
+      <c r="G263" s="35"/>
+      <c r="H263" s="35"/>
+      <c r="I263" s="35"/>
+      <c r="J263" s="35"/>
       <c r="K263" s="20">
         <v>7</v>
       </c>
-      <c r="L263" s="40">
+      <c r="L263" s="32">
         <v>839.46</v>
       </c>
-      <c r="M263" s="40">
+      <c r="M263" s="32">
         <v>839.46</v>
       </c>
-      <c r="N263" s="40"/>
+      <c r="N263" s="32"/>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A264" s="37"/>
-      <c r="B264" s="32"/>
-      <c r="C264" s="32"/>
-      <c r="D264" s="32"/>
-      <c r="E264" s="32"/>
-      <c r="F264" s="32"/>
-      <c r="G264" s="32"/>
-      <c r="H264" s="32"/>
-      <c r="I264" s="32"/>
-      <c r="J264" s="32"/>
+      <c r="A264" s="38"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="35"/>
+      <c r="E264" s="35"/>
+      <c r="F264" s="35"/>
+      <c r="G264" s="35"/>
+      <c r="H264" s="35"/>
+      <c r="I264" s="35"/>
+      <c r="J264" s="35"/>
       <c r="K264" s="20">
         <v>8</v>
       </c>
-      <c r="L264" s="40">
+      <c r="L264" s="32">
         <v>839.46</v>
       </c>
-      <c r="M264" s="40">
+      <c r="M264" s="32">
         <v>839.46</v>
       </c>
-      <c r="N264" s="40"/>
+      <c r="N264" s="32"/>
     </row>
     <row r="265" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="38"/>
-      <c r="B265" s="33"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="33"/>
-      <c r="F265" s="33"/>
-      <c r="G265" s="33"/>
-      <c r="H265" s="33"/>
-      <c r="I265" s="33"/>
-      <c r="J265" s="33"/>
+      <c r="A265" s="39"/>
+      <c r="B265" s="36"/>
+      <c r="C265" s="36"/>
+      <c r="D265" s="36"/>
+      <c r="E265" s="36"/>
+      <c r="F265" s="36"/>
+      <c r="G265" s="36"/>
+      <c r="H265" s="36"/>
+      <c r="I265" s="36"/>
+      <c r="J265" s="36"/>
       <c r="K265" s="22">
         <v>9</v>
       </c>
-      <c r="L265" s="41">
+      <c r="L265" s="33">
         <v>839.46</v>
       </c>
-      <c r="M265" s="41">
+      <c r="M265" s="33">
         <v>839.46</v>
       </c>
-      <c r="N265" s="41"/>
+      <c r="N265" s="33"/>
       <c r="O265" s="25"/>
     </row>
     <row r="266" spans="1:15" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="36" t="s">
+      <c r="A266" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B266" s="31" t="s">
+      <c r="B266" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C266" s="31" t="s">
+      <c r="C266" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D266" s="31" t="s">
+      <c r="D266" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E266" s="31" t="s">
+      <c r="E266" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F266" s="31">
+      <c r="F266" s="34">
         <v>26</v>
       </c>
-      <c r="G266" s="31" t="s">
+      <c r="G266" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H266" s="31">
+      <c r="H266" s="34">
         <v>10</v>
       </c>
-      <c r="I266" s="31">
+      <c r="I266" s="34">
         <v>256</v>
       </c>
-      <c r="J266" s="31" t="s">
+      <c r="J266" s="34" t="s">
         <v>20</v>
       </c>
       <c r="K266" s="26">
         <v>0</v>
       </c>
-      <c r="L266" s="39">
+      <c r="L266" s="31">
         <v>839.46</v>
       </c>
-      <c r="M266" s="39">
+      <c r="M266" s="31">
         <v>839.46</v>
       </c>
-      <c r="N266" s="39"/>
+      <c r="N266" s="31"/>
       <c r="O266" s="16"/>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A267" s="37"/>
-      <c r="B267" s="32"/>
-      <c r="C267" s="32"/>
-      <c r="D267" s="32"/>
-      <c r="E267" s="32"/>
-      <c r="F267" s="32"/>
-      <c r="G267" s="32"/>
-      <c r="H267" s="32"/>
-      <c r="I267" s="32"/>
-      <c r="J267" s="32"/>
+      <c r="A267" s="38"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="35"/>
+      <c r="D267" s="35"/>
+      <c r="E267" s="35"/>
+      <c r="F267" s="35"/>
+      <c r="G267" s="35"/>
+      <c r="H267" s="35"/>
+      <c r="I267" s="35"/>
+      <c r="J267" s="35"/>
       <c r="K267" s="20">
         <v>1</v>
       </c>
-      <c r="L267" s="40">
+      <c r="L267" s="32">
         <v>839.46</v>
       </c>
-      <c r="M267" s="40">
+      <c r="M267" s="32">
         <v>839.46</v>
       </c>
-      <c r="N267" s="40"/>
+      <c r="N267" s="32"/>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A268" s="37"/>
-      <c r="B268" s="32"/>
-      <c r="C268" s="32"/>
-      <c r="D268" s="32"/>
-      <c r="E268" s="32"/>
-      <c r="F268" s="32"/>
-      <c r="G268" s="32"/>
-      <c r="H268" s="32"/>
-      <c r="I268" s="32"/>
-      <c r="J268" s="32"/>
+      <c r="A268" s="38"/>
+      <c r="B268" s="35"/>
+      <c r="C268" s="35"/>
+      <c r="D268" s="35"/>
+      <c r="E268" s="35"/>
+      <c r="F268" s="35"/>
+      <c r="G268" s="35"/>
+      <c r="H268" s="35"/>
+      <c r="I268" s="35"/>
+      <c r="J268" s="35"/>
       <c r="K268" s="20">
         <v>2</v>
       </c>
-      <c r="L268" s="40">
+      <c r="L268" s="32">
         <v>839.46</v>
       </c>
-      <c r="M268" s="40">
+      <c r="M268" s="32">
         <v>839.46</v>
       </c>
-      <c r="N268" s="40"/>
+      <c r="N268" s="32"/>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A269" s="37"/>
-      <c r="B269" s="32"/>
-      <c r="C269" s="32"/>
-      <c r="D269" s="32"/>
-      <c r="E269" s="32"/>
-      <c r="F269" s="32"/>
-      <c r="G269" s="32"/>
-      <c r="H269" s="32"/>
-      <c r="I269" s="32"/>
-      <c r="J269" s="32"/>
+      <c r="A269" s="38"/>
+      <c r="B269" s="35"/>
+      <c r="C269" s="35"/>
+      <c r="D269" s="35"/>
+      <c r="E269" s="35"/>
+      <c r="F269" s="35"/>
+      <c r="G269" s="35"/>
+      <c r="H269" s="35"/>
+      <c r="I269" s="35"/>
+      <c r="J269" s="35"/>
       <c r="K269" s="20">
         <v>3</v>
       </c>
-      <c r="L269" s="40">
+      <c r="L269" s="32">
         <v>839.46</v>
       </c>
-      <c r="M269" s="40">
+      <c r="M269" s="32">
         <v>839.46</v>
       </c>
-      <c r="N269" s="40"/>
+      <c r="N269" s="32"/>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A270" s="37"/>
-      <c r="B270" s="32"/>
-      <c r="C270" s="32"/>
-      <c r="D270" s="32"/>
-      <c r="E270" s="32"/>
-      <c r="F270" s="32"/>
-      <c r="G270" s="32"/>
-      <c r="H270" s="32"/>
-      <c r="I270" s="32"/>
-      <c r="J270" s="32"/>
+      <c r="A270" s="38"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="35"/>
+      <c r="D270" s="35"/>
+      <c r="E270" s="35"/>
+      <c r="F270" s="35"/>
+      <c r="G270" s="35"/>
+      <c r="H270" s="35"/>
+      <c r="I270" s="35"/>
+      <c r="J270" s="35"/>
       <c r="K270" s="20">
         <v>4</v>
       </c>
-      <c r="L270" s="40">
+      <c r="L270" s="32">
         <v>839.46</v>
       </c>
-      <c r="M270" s="40">
+      <c r="M270" s="32">
         <v>839.46</v>
       </c>
-      <c r="N270" s="40"/>
+      <c r="N270" s="32"/>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A271" s="37"/>
-      <c r="B271" s="32"/>
-      <c r="C271" s="32"/>
-      <c r="D271" s="32"/>
-      <c r="E271" s="32"/>
-      <c r="F271" s="32"/>
-      <c r="G271" s="32"/>
-      <c r="H271" s="32"/>
-      <c r="I271" s="32"/>
-      <c r="J271" s="32"/>
+      <c r="A271" s="38"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="35"/>
+      <c r="E271" s="35"/>
+      <c r="F271" s="35"/>
+      <c r="G271" s="35"/>
+      <c r="H271" s="35"/>
+      <c r="I271" s="35"/>
+      <c r="J271" s="35"/>
       <c r="K271" s="20">
         <v>5</v>
       </c>
-      <c r="L271" s="40">
+      <c r="L271" s="32">
         <v>839.46</v>
       </c>
-      <c r="M271" s="40">
+      <c r="M271" s="32">
         <v>839.46</v>
       </c>
-      <c r="N271" s="40"/>
+      <c r="N271" s="32"/>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A272" s="37"/>
-      <c r="B272" s="32"/>
-      <c r="C272" s="32"/>
-      <c r="D272" s="32"/>
-      <c r="E272" s="32"/>
-      <c r="F272" s="32"/>
-      <c r="G272" s="32"/>
-      <c r="H272" s="32"/>
-      <c r="I272" s="32"/>
-      <c r="J272" s="32"/>
+      <c r="A272" s="38"/>
+      <c r="B272" s="35"/>
+      <c r="C272" s="35"/>
+      <c r="D272" s="35"/>
+      <c r="E272" s="35"/>
+      <c r="F272" s="35"/>
+      <c r="G272" s="35"/>
+      <c r="H272" s="35"/>
+      <c r="I272" s="35"/>
+      <c r="J272" s="35"/>
       <c r="K272" s="20">
         <v>6</v>
       </c>
-      <c r="L272" s="40">
+      <c r="L272" s="32">
         <v>839.46</v>
       </c>
-      <c r="M272" s="40">
+      <c r="M272" s="32">
         <v>839.46</v>
       </c>
-      <c r="N272" s="40"/>
+      <c r="N272" s="32"/>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A273" s="37"/>
-      <c r="B273" s="32"/>
-      <c r="C273" s="32"/>
-      <c r="D273" s="32"/>
-      <c r="E273" s="32"/>
-      <c r="F273" s="32"/>
-      <c r="G273" s="32"/>
-      <c r="H273" s="32"/>
-      <c r="I273" s="32"/>
-      <c r="J273" s="32"/>
+      <c r="A273" s="38"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="35"/>
+      <c r="D273" s="35"/>
+      <c r="E273" s="35"/>
+      <c r="F273" s="35"/>
+      <c r="G273" s="35"/>
+      <c r="H273" s="35"/>
+      <c r="I273" s="35"/>
+      <c r="J273" s="35"/>
       <c r="K273" s="20">
         <v>7</v>
       </c>
-      <c r="L273" s="40">
+      <c r="L273" s="32">
         <v>839.46</v>
       </c>
-      <c r="M273" s="40">
+      <c r="M273" s="32">
         <v>839.46</v>
       </c>
-      <c r="N273" s="40"/>
+      <c r="N273" s="32"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A274" s="37"/>
-      <c r="B274" s="32"/>
-      <c r="C274" s="32"/>
-      <c r="D274" s="32"/>
-      <c r="E274" s="32"/>
-      <c r="F274" s="32"/>
-      <c r="G274" s="32"/>
-      <c r="H274" s="32"/>
-      <c r="I274" s="32"/>
-      <c r="J274" s="32"/>
+      <c r="A274" s="38"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="35"/>
+      <c r="D274" s="35"/>
+      <c r="E274" s="35"/>
+      <c r="F274" s="35"/>
+      <c r="G274" s="35"/>
+      <c r="H274" s="35"/>
+      <c r="I274" s="35"/>
+      <c r="J274" s="35"/>
       <c r="K274" s="20">
         <v>8</v>
       </c>
-      <c r="L274" s="40">
+      <c r="L274" s="32">
         <v>839.46</v>
       </c>
-      <c r="M274" s="40">
+      <c r="M274" s="32">
         <v>839.46</v>
       </c>
-      <c r="N274" s="40"/>
+      <c r="N274" s="32"/>
     </row>
     <row r="275" spans="1:15" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="38"/>
-      <c r="B275" s="33"/>
-      <c r="C275" s="33"/>
-      <c r="D275" s="33"/>
-      <c r="E275" s="33"/>
-      <c r="F275" s="33"/>
-      <c r="G275" s="33"/>
-      <c r="H275" s="33"/>
-      <c r="I275" s="33"/>
-      <c r="J275" s="33"/>
+      <c r="A275" s="39"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="36"/>
+      <c r="E275" s="36"/>
+      <c r="F275" s="36"/>
+      <c r="G275" s="36"/>
+      <c r="H275" s="36"/>
+      <c r="I275" s="36"/>
+      <c r="J275" s="36"/>
       <c r="K275" s="22">
         <v>9</v>
       </c>
-      <c r="L275" s="41">
+      <c r="L275" s="33">
         <v>839.46</v>
       </c>
-      <c r="M275" s="41">
+      <c r="M275" s="33">
         <v>839.46</v>
       </c>
-      <c r="N275" s="41"/>
+      <c r="N275" s="33"/>
       <c r="O275" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="J266:J275"/>
-    <mergeCell ref="A266:A275"/>
-    <mergeCell ref="B266:B275"/>
-    <mergeCell ref="C266:C275"/>
-    <mergeCell ref="D266:D275"/>
-    <mergeCell ref="E266:E275"/>
-    <mergeCell ref="F266:F275"/>
-    <mergeCell ref="G266:G275"/>
-    <mergeCell ref="H266:H275"/>
-    <mergeCell ref="I266:I275"/>
-    <mergeCell ref="J256:J265"/>
-    <mergeCell ref="A246:A255"/>
-    <mergeCell ref="B246:B255"/>
-    <mergeCell ref="C246:C255"/>
-    <mergeCell ref="D246:D255"/>
-    <mergeCell ref="E246:E255"/>
-    <mergeCell ref="F246:F255"/>
-    <mergeCell ref="G246:G255"/>
-    <mergeCell ref="H246:H255"/>
-    <mergeCell ref="I246:I255"/>
-    <mergeCell ref="J246:J255"/>
-    <mergeCell ref="A256:A265"/>
-    <mergeCell ref="B256:B265"/>
-    <mergeCell ref="C256:C265"/>
-    <mergeCell ref="D256:D265"/>
-    <mergeCell ref="E256:E265"/>
-    <mergeCell ref="F256:F265"/>
-    <mergeCell ref="G256:G265"/>
-    <mergeCell ref="H256:H265"/>
-    <mergeCell ref="I256:I265"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="J22:J31"/>
-    <mergeCell ref="I22:I31"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="G22:G31"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="F22:F31"/>
-    <mergeCell ref="E22:E31"/>
-    <mergeCell ref="D22:D31"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="J32:J41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="D42:D51"/>
-    <mergeCell ref="E42:E51"/>
-    <mergeCell ref="F42:F51"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="H42:H51"/>
-    <mergeCell ref="D32:D41"/>
-    <mergeCell ref="E32:E41"/>
-    <mergeCell ref="F32:F41"/>
-    <mergeCell ref="G32:G41"/>
-    <mergeCell ref="H32:H41"/>
-    <mergeCell ref="I32:I41"/>
-    <mergeCell ref="I42:I51"/>
-    <mergeCell ref="J42:J51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="E52:E61"/>
-    <mergeCell ref="F52:F61"/>
-    <mergeCell ref="G52:G61"/>
+    <mergeCell ref="I236:I245"/>
+    <mergeCell ref="J236:J245"/>
+    <mergeCell ref="A235:J235"/>
+    <mergeCell ref="A236:A245"/>
+    <mergeCell ref="B236:B245"/>
+    <mergeCell ref="C236:C245"/>
+    <mergeCell ref="D236:D245"/>
+    <mergeCell ref="E236:E245"/>
+    <mergeCell ref="F236:F245"/>
+    <mergeCell ref="G236:G245"/>
+    <mergeCell ref="H236:H245"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="B72:B81"/>
     <mergeCell ref="C72:C81"/>
@@ -21545,17 +21496,104 @@
     <mergeCell ref="H62:H71"/>
     <mergeCell ref="I62:I71"/>
     <mergeCell ref="J62:J71"/>
-    <mergeCell ref="I236:I245"/>
-    <mergeCell ref="J236:J245"/>
-    <mergeCell ref="A235:J235"/>
-    <mergeCell ref="A236:A245"/>
-    <mergeCell ref="B236:B245"/>
-    <mergeCell ref="C236:C245"/>
-    <mergeCell ref="D236:D245"/>
-    <mergeCell ref="E236:E245"/>
-    <mergeCell ref="F236:F245"/>
-    <mergeCell ref="G236:G245"/>
-    <mergeCell ref="H236:H245"/>
+    <mergeCell ref="I42:I51"/>
+    <mergeCell ref="J42:J51"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="D52:D61"/>
+    <mergeCell ref="E52:E61"/>
+    <mergeCell ref="F52:F61"/>
+    <mergeCell ref="G52:G61"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="D42:D51"/>
+    <mergeCell ref="E42:E51"/>
+    <mergeCell ref="F42:F51"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="H42:H51"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="E32:E41"/>
+    <mergeCell ref="F32:F41"/>
+    <mergeCell ref="G32:G41"/>
+    <mergeCell ref="H32:H41"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="F22:F31"/>
+    <mergeCell ref="E22:E31"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="J32:J41"/>
+    <mergeCell ref="I32:I41"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="J16:J21"/>
+    <mergeCell ref="J22:J31"/>
+    <mergeCell ref="I22:I31"/>
+    <mergeCell ref="H22:H31"/>
+    <mergeCell ref="G22:G31"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="J256:J265"/>
+    <mergeCell ref="A246:A255"/>
+    <mergeCell ref="B246:B255"/>
+    <mergeCell ref="C246:C255"/>
+    <mergeCell ref="D246:D255"/>
+    <mergeCell ref="E246:E255"/>
+    <mergeCell ref="F246:F255"/>
+    <mergeCell ref="G246:G255"/>
+    <mergeCell ref="H246:H255"/>
+    <mergeCell ref="I246:I255"/>
+    <mergeCell ref="J246:J255"/>
+    <mergeCell ref="A256:A265"/>
+    <mergeCell ref="B256:B265"/>
+    <mergeCell ref="C256:C265"/>
+    <mergeCell ref="D256:D265"/>
+    <mergeCell ref="E256:E265"/>
+    <mergeCell ref="F256:F265"/>
+    <mergeCell ref="G256:G265"/>
+    <mergeCell ref="H256:H265"/>
+    <mergeCell ref="I256:I265"/>
+    <mergeCell ref="J266:J275"/>
+    <mergeCell ref="A266:A275"/>
+    <mergeCell ref="B266:B275"/>
+    <mergeCell ref="C266:C275"/>
+    <mergeCell ref="D266:D275"/>
+    <mergeCell ref="E266:E275"/>
+    <mergeCell ref="F266:F275"/>
+    <mergeCell ref="G266:G275"/>
+    <mergeCell ref="H266:H275"/>
+    <mergeCell ref="I266:I275"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
